--- a/artfynd/A 22231-2019.xlsx
+++ b/artfynd/A 22231-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6461804</v>
+        <v>80448745</v>
       </c>
       <c r="B2" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tandövarden, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395835.6417244835</v>
+        <v>396273.9065109161</v>
       </c>
       <c r="R2" t="n">
-        <v>6751503.444573672</v>
+        <v>6751591.959327023</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,39 +768,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Barrblandskog med naturskogskaraktär</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1858292</v>
+        <v>6461804</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395417.2772884546</v>
+        <v>395835.6417244835</v>
       </c>
       <c r="R3" t="n">
-        <v>6751495.257625232</v>
+        <v>6751503.444573672</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1616,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1874202</v>
+        <v>99307</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>94121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,21 +1633,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1656,10 +1657,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395469.0782598752</v>
+        <v>395854.9981841301</v>
       </c>
       <c r="R10" t="n">
-        <v>6751498.119537819</v>
+        <v>6751498.006843789</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1734,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99307</v>
+        <v>710440</v>
       </c>
       <c r="B11" t="n">
-        <v>94121</v>
+        <v>90841</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1750,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>2079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1773,10 +1774,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395854.9981841301</v>
+        <v>395854.8241030077</v>
       </c>
       <c r="R11" t="n">
-        <v>6751498.006843789</v>
+        <v>6751508.728427322</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,10 +1851,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>710440</v>
+        <v>170107</v>
       </c>
       <c r="B12" t="n">
-        <v>90841</v>
+        <v>85703</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,21 +1867,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>510</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1890,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395854.8241030077</v>
+        <v>395836.559679628</v>
       </c>
       <c r="R12" t="n">
-        <v>6751508.728427322</v>
+        <v>6751501.469247651</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,10 +1968,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>170107</v>
+        <v>2067995</v>
       </c>
       <c r="B13" t="n">
-        <v>85703</v>
+        <v>78596</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,25 +1980,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395836.559679628</v>
+        <v>395782.0253408402</v>
       </c>
       <c r="R13" t="n">
-        <v>6751501.469247651</v>
+        <v>6751471.890686911</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2084,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2067995</v>
+        <v>1858293</v>
       </c>
       <c r="B14" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2096,25 +2097,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395782.0253408402</v>
+        <v>395776.0587906174</v>
       </c>
       <c r="R14" t="n">
-        <v>6751471.890686911</v>
+        <v>6751484.730494722</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,10 +2202,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1858293</v>
+        <v>2094435</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>76486</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,21 +2218,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2242,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395776.0587906174</v>
+        <v>395703.96951432</v>
       </c>
       <c r="R15" t="n">
-        <v>6751484.730494722</v>
+        <v>6751488.791250334</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2318,10 +2319,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2094435</v>
+        <v>2058820</v>
       </c>
       <c r="B16" t="n">
-        <v>76486</v>
+        <v>78098</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2334,21 +2335,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6487</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2358,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395703.96951432</v>
+        <v>395707.8265180337</v>
       </c>
       <c r="R16" t="n">
-        <v>6751488.791250334</v>
+        <v>6751487.216849403</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2058820</v>
+        <v>109431</v>
       </c>
       <c r="B17" t="n">
-        <v>78098</v>
+        <v>77177</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2451,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395707.8265180337</v>
+        <v>395854.8241030077</v>
       </c>
       <c r="R17" t="n">
-        <v>6751487.216849403</v>
+        <v>6751508.728427322</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2552,10 +2553,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109431</v>
+        <v>1598027</v>
       </c>
       <c r="B18" t="n">
-        <v>77177</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,25 +2565,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>353</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2669,10 +2670,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1598027</v>
+        <v>1978179</v>
       </c>
       <c r="B19" t="n">
-        <v>89356</v>
+        <v>77258</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,25 +2682,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2709,10 +2710,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395854.8241030077</v>
+        <v>395835.6417244835</v>
       </c>
       <c r="R19" t="n">
-        <v>6751508.728427322</v>
+        <v>6751503.444573672</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2786,7 +2787,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1978179</v>
+        <v>1978180</v>
       </c>
       <c r="B20" t="n">
         <v>77258</v>
@@ -2826,10 +2827,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395835.6417244835</v>
+        <v>395882.6100079498</v>
       </c>
       <c r="R20" t="n">
-        <v>6751503.444573672</v>
+        <v>6751507.915270141</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2903,10 +2904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1978180</v>
+        <v>80448741</v>
       </c>
       <c r="B21" t="n">
-        <v>77258</v>
+        <v>81236</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,37 +2920,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Tandövarden, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395882.6100079498</v>
+        <v>395791.0137360302</v>
       </c>
       <c r="R21" t="n">
-        <v>6751507.915270141</v>
+        <v>6751478.934199437</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2973,7 +2974,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2983,7 +2984,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2999,31 +3000,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Barrblandskog med naturskogskaraktär</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80448741</v>
+        <v>80448740</v>
       </c>
       <c r="B22" t="n">
-        <v>81236</v>
+        <v>78603</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,25 +3028,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3132,7 +3128,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80448745</v>
+        <v>1858292</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3168,17 +3164,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Tandövarden, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396273.9065109161</v>
+        <v>395417.2772884546</v>
       </c>
       <c r="R23" t="n">
-        <v>6751591.959327023</v>
+        <v>6751495.257625232</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3202,7 +3198,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3212,7 +3208,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3220,40 +3216,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Barrblandskog med naturskogskaraktär</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80448740</v>
+        <v>1874202</v>
       </c>
       <c r="B24" t="n">
-        <v>78603</v>
+        <v>73693</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3262,41 +3257,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Tandövarden, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395791.0137360302</v>
+        <v>395469.0782598752</v>
       </c>
       <c r="R24" t="n">
-        <v>6751478.934199437</v>
+        <v>6751498.119537819</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3320,7 +3315,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3330,7 +3325,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3346,16 +3341,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Barrblandskog med naturskogskaraktär</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>

--- a/artfynd/A 22231-2019.xlsx
+++ b/artfynd/A 22231-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80448745</v>
+        <v>6461804</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Tandövarden, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396273.9065109161</v>
+        <v>395835.6417244835</v>
       </c>
       <c r="R2" t="n">
-        <v>6751591.959327023</v>
+        <v>6751503.444573672</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,40 +768,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Barrblandskog med naturskogskaraktär</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6461804</v>
+        <v>1858292</v>
       </c>
       <c r="B3" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>395835.6417244835</v>
+        <v>395417.2772884546</v>
       </c>
       <c r="R3" t="n">
-        <v>6751503.444573672</v>
+        <v>6751495.257625232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1617,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99307</v>
+        <v>1874202</v>
       </c>
       <c r="B10" t="n">
-        <v>94121</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,21 +1632,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1657,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395854.9981841301</v>
+        <v>395469.0782598752</v>
       </c>
       <c r="R10" t="n">
-        <v>6751498.006843789</v>
+        <v>6751498.119537819</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1734,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>710440</v>
+        <v>99307</v>
       </c>
       <c r="B11" t="n">
-        <v>90841</v>
+        <v>94121</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1750,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2079</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1774,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395854.8241030077</v>
+        <v>395854.9981841301</v>
       </c>
       <c r="R11" t="n">
-        <v>6751508.728427322</v>
+        <v>6751498.006843789</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1851,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>170107</v>
+        <v>710440</v>
       </c>
       <c r="B12" t="n">
-        <v>85703</v>
+        <v>90841</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1867,21 +1866,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>510</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1891,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395836.559679628</v>
+        <v>395854.8241030077</v>
       </c>
       <c r="R12" t="n">
-        <v>6751501.469247651</v>
+        <v>6751508.728427322</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1968,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2067995</v>
+        <v>170107</v>
       </c>
       <c r="B13" t="n">
-        <v>78596</v>
+        <v>85703</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1980,25 +1979,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395782.0253408402</v>
+        <v>395836.559679628</v>
       </c>
       <c r="R13" t="n">
-        <v>6751471.890686911</v>
+        <v>6751501.469247651</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,10 +2084,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1858293</v>
+        <v>2067995</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,25 +2096,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395776.0587906174</v>
+        <v>395782.0253408402</v>
       </c>
       <c r="R14" t="n">
-        <v>6751484.730494722</v>
+        <v>6751471.890686911</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2202,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2094435</v>
+        <v>1858293</v>
       </c>
       <c r="B15" t="n">
-        <v>76486</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2218,21 +2217,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2242,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395703.96951432</v>
+        <v>395776.0587906174</v>
       </c>
       <c r="R15" t="n">
-        <v>6751488.791250334</v>
+        <v>6751484.730494722</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2319,10 +2318,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2058820</v>
+        <v>2094435</v>
       </c>
       <c r="B16" t="n">
-        <v>78098</v>
+        <v>76486</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2335,21 +2334,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2359,10 +2358,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395707.8265180337</v>
+        <v>395703.96951432</v>
       </c>
       <c r="R16" t="n">
-        <v>6751487.216849403</v>
+        <v>6751488.791250334</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2436,10 +2435,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109431</v>
+        <v>2058820</v>
       </c>
       <c r="B17" t="n">
-        <v>77177</v>
+        <v>78098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2452,21 +2451,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395854.8241030077</v>
+        <v>395707.8265180337</v>
       </c>
       <c r="R17" t="n">
-        <v>6751508.728427322</v>
+        <v>6751487.216849403</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2553,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1598027</v>
+        <v>109431</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>77177</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,25 +2564,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>353</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2670,10 +2669,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1978179</v>
+        <v>1598027</v>
       </c>
       <c r="B19" t="n">
-        <v>77258</v>
+        <v>89356</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2682,25 +2681,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2710,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395835.6417244835</v>
+        <v>395854.8241030077</v>
       </c>
       <c r="R19" t="n">
-        <v>6751503.444573672</v>
+        <v>6751508.728427322</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2787,7 +2786,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1978180</v>
+        <v>1978179</v>
       </c>
       <c r="B20" t="n">
         <v>77258</v>
@@ -2827,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395882.6100079498</v>
+        <v>395835.6417244835</v>
       </c>
       <c r="R20" t="n">
-        <v>6751507.915270141</v>
+        <v>6751503.444573672</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2904,10 +2903,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80448741</v>
+        <v>1978180</v>
       </c>
       <c r="B21" t="n">
-        <v>81236</v>
+        <v>77258</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2920,37 +2919,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Tandövarden, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>395791.0137360302</v>
+        <v>395882.6100079498</v>
       </c>
       <c r="R21" t="n">
-        <v>6751478.934199437</v>
+        <v>6751507.915270141</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2974,7 +2973,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2984,7 +2983,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3000,26 +2999,31 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Barrblandskog med naturskogskaraktär</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80448740</v>
+        <v>80448741</v>
       </c>
       <c r="B22" t="n">
-        <v>78603</v>
+        <v>81236</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3028,25 +3032,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3128,7 +3132,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1858292</v>
+        <v>80448745</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3164,17 +3168,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Tandövarden, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395417.2772884546</v>
+        <v>396273.9065109161</v>
       </c>
       <c r="R23" t="n">
-        <v>6751495.257625232</v>
+        <v>6751591.959327023</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3198,7 +3202,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3208,7 +3212,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3216,39 +3220,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>Barrblandskog med naturskogskaraktär</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1874202</v>
+        <v>80448740</v>
       </c>
       <c r="B24" t="n">
-        <v>73693</v>
+        <v>78603</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3257,41 +3262,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Tandövarden, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395469.0782598752</v>
+        <v>395791.0137360302</v>
       </c>
       <c r="R24" t="n">
-        <v>6751498.119537819</v>
+        <v>6751478.934199437</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3315,7 +3320,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3325,7 +3330,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3341,21 +3346,16 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Barrblandskog med naturskogskaraktär</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
